--- a/Data/site_coding/Sites_and_abbreviations.xlsx
+++ b/Data/site_coding/Sites_and_abbreviations.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uthtmc-my.sharepoint.com/personal/hieu_t_nguyen_uth_tmc_edu1/Documents/TEPHI_WW_Dashboard/Data/site_coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u241374/mike_tisza/cmmr_repos/TEPHI_WW_virus_report/data/site_coding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706F456D-C64A-C341-9EE5-B7FAAF18B3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9F6CF4-66CD-9244-B068-8C9C8633B21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="765" windowWidth="19935" windowHeight="20835" xr2:uid="{1FFDD199-BBCD-4AE4-89AD-4D74D654C877}"/>
+    <workbookView xWindow="0" yWindow="8520" windowWidth="12660" windowHeight="18640" xr2:uid="{1FFDD199-BBCD-4AE4-89AD-4D74D654C877}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Site</t>
   </si>
@@ -183,6 +183,27 @@
   </si>
   <si>
     <t>IC</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>South Austin 1</t>
+  </si>
+  <si>
+    <t>South Austin 2</t>
+  </si>
+  <si>
+    <t>Walnut Creek</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
   </si>
 </sst>
 </file>
@@ -225,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -248,11 +269,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,6 +296,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,20 +613,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B23E30E-0EA3-40DF-8D58-AD9242D451DC}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -602,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -613,7 +648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -624,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -635,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -646,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -657,7 +692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -668,7 +703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -679,7 +714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -690,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -701,7 +736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -712,7 +747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -723,7 +758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -734,7 +769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -745,7 +780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -756,7 +791,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -767,7 +802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>38</v>
       </c>
@@ -779,7 +814,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -791,7 +826,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
@@ -803,7 +838,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,7 +849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -825,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -836,7 +871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -847,7 +882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -858,7 +893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -869,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
@@ -880,7 +915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
@@ -891,7 +926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -902,7 +937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -913,7 +948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -924,7 +959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
@@ -935,7 +970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
@@ -944,6 +979,39 @@
       </c>
       <c r="C32" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
